--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowHeight="17260"/>
   </bookViews>
   <sheets>
     <sheet name="实验" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>项目</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>面试-系统调用.md</t>
+  </si>
+  <si>
+    <t>实验三</t>
+  </si>
+  <si>
+    <t>实验三报告.md</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1030,9 +1036,15 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45395</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="28800" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="实验" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>项目</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>实验三报告.md</t>
+  </si>
+  <si>
+    <t>实验四</t>
+  </si>
+  <si>
+    <t>实验四报告.md</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1047,9 +1053,15 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45396</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>项目</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>实验四报告.md</t>
+  </si>
+  <si>
+    <t>实验五</t>
+  </si>
+  <si>
+    <t>实验五报告.md</t>
+  </si>
+  <si>
+    <t>Linux信号量函数.md</t>
+  </si>
+  <si>
+    <t>解决生产者-消费者问题.md</t>
   </si>
 </sst>
 </file>
@@ -999,13 +1011,13 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.2857142857143"/>
-    <col min="3" max="3" width="23.9285714285714" customWidth="1"/>
+    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1064,19 +1076,37 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45397</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45397</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45397</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>项目</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>解决生产者-消费者问题.md</t>
+  </si>
+  <si>
+    <t>实验六</t>
+  </si>
+  <si>
+    <t>虚拟地址翻译成物理地址.md</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1017,7 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1109,9 +1115,15 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45398</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="实验" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>项目</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>虚拟地址翻译成物理地址.md</t>
+  </si>
+  <si>
+    <t>分析fork的内存管理.md</t>
+  </si>
+  <si>
+    <t>Linux0.11的内存管理.md</t>
+  </si>
+  <si>
+    <t>Linux0.11的内存管理2.md</t>
+  </si>
+  <si>
+    <t>实现共享内存.md</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1029,7 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1126,24 +1138,48 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45399</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45399</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45399</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45399</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11980"/>
+    <workbookView windowWidth="28800" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="实验" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>项目</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>实现共享内存.md</t>
+  </si>
+  <si>
+    <t>实验七</t>
+  </si>
+  <si>
+    <t>终端设备的控制.md</t>
+  </si>
+  <si>
+    <t>ASCII码表.md</t>
+  </si>
+  <si>
+    <t>分析键盘中断过程.md</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1041,7 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1182,19 +1194,37 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45400</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45400</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45400</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="实验" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>项目</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>分析键盘中断过程.md</t>
+  </si>
+  <si>
+    <t>实验八</t>
+  </si>
+  <si>
+    <t>proc文件系统的实现.md</t>
+  </si>
+  <si>
+    <t>Linux0.11内核完全注释-文件系统.md</t>
   </si>
 </sst>
 </file>
@@ -1039,15 +1048,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.2857142857143"/>
-    <col min="3" max="3" width="28.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="37.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1227,14 +1236,26 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45401</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45401</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>

--- a/HGDLZJ/Library/项目计划跟进表.xlsx
+++ b/HGDLZJ/Library/项目计划跟进表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>项目</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Linux0.11内核完全注释-文件系统.md</t>
+  </si>
+  <si>
+    <t>Linux0.11内核完全注释-文件系统2.md</t>
+  </si>
+  <si>
+    <t>Linux0.11内核完全注释-文件系统3.md</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1056,7 @@
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1258,14 +1264,26 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45401</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45401</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
